--- a/todolist _api_design.xlsx
+++ b/todolist _api_design.xlsx
@@ -16,21 +16,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>POST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+  <si>
+    <t>请求方式</t>
+  </si>
+  <si>
+    <t>请求路径</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>请求参数</t>
+  </si>
+  <si>
+    <t>参数类型</t>
+  </si>
+  <si>
+    <t>参数描述</t>
+  </si>
+  <si>
+    <t>是否必填</t>
+  </si>
+  <si>
+    <t>响应参数</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>示例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POST
+</t>
   </si>
   <si>
     <t>/todo/addToDo</t>
+  </si>
+  <si>
+    <t>新增待办事项</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>用户ID</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>01：成功； 02:失败</t>
+  </si>
+  <si>
+    <t>todoDesc</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>待办事务描述</t>
+  </si>
+  <si>
+    <t>todos</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>[todo1,todo2]</t>
+  </si>
+  <si>
+    <t>todo</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>{todoId,userId,todoDesc,status}</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -38,12 +114,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,8 +128,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,67 +248,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,27 +273,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -212,6 +296,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -230,43 +434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,37 +446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,13 +458,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,55 +476,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,30 +487,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -445,6 +505,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -456,6 +525,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,21 +579,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -508,153 +592,171 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1005,18 +1107,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="2" max="2" width="25.375" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="36.25" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="4" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="19.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1026,16 +1134,121 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="8:11">
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="10:10">
+      <c r="J6" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
